--- a/medicine/Sexualité et sexologie/Melissa_P._(film)/Melissa_P._(film).xlsx
+++ b/medicine/Sexualité et sexologie/Melissa_P._(film)/Melissa_P._(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melissa P., parfois intitulé Melissa P., 15 ans, est un film hispano-italien réalisé par Luca Guadagnino et sorti en 2005. Il s'agit d'une adaptation du roman autobiographique de Melissa Panarello, Cent coups de brosse avant d'aller dormir, publié en 2003.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Melissa est une adolescente romantique qui rêve de son premier baiser et du beau Daniele. Quand ce dernier l'entraîne, lors d'une fête, vers un bosquet, elle croit son rêve réalisé, mais c'est à une fellation qu'elle se voit pratiquement forcée.
 Au lieu de rompre immédiatement avec lui, elle se plie aux propositions libertines qu'il lui fait régulièrement après cela, et Melissa se retrouve entraînée dans une descente aux enfers que personne, dans sa famille, ne soupçonne, à part sa grand-mère. Les rencontres les plus scabreuses se succèdent et la réputation de Melissa pâtit de cette frénésie qu'elle n'a pas la force de refuser. Mais c'est l'amour qu'elle a toujours reçu de ses proches qui la sauvera.
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Melissa P.
 Réalisation : Luca Guadagnino
@@ -586,7 +602,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>María Valverde  : Melissa
 Letizia Ciampa (VF : Céline Ronté) : Manuela
